--- a/Portfolio_Log.xlsx
+++ b/Portfolio_Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>Δ Realized</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Average Cost</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Average Entry Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +521,43 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>298.13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1842.92</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1542.19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Portfolio_Log.xlsx
+++ b/Portfolio_Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Market_Value</t>
+          <t>Market Value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Average_Cost</t>
+          <t>Average Entry Price</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -477,21 +477,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Δ Realized</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Market Value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Average Cost</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Average Entry Price</t>
         </is>
       </c>
     </row>
@@ -521,9 +506,6 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,8 +513,12 @@
           <t>2024-07-08</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1842.92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1542.19</v>
+      </c>
       <c r="D3" t="n">
         <v>298.13</v>
       </c>
@@ -551,12 +537,191 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1842.92</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1866.73</v>
+      </c>
+      <c r="C4" t="n">
         <v>1542.19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>321.96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1899.28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1542.19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>354.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55.84</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1924.33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1597.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>324.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>65.04000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-30.28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1905.58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1626.24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-47.42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-57.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1906.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1626.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>277.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>63.87</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65.37</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1793.63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1624.33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>166.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62.18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-111.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
